--- a/medicine/Sexualité et sexologie/Bad_Sex_in_Fiction_Award/Bad_Sex_in_Fiction_Award.xlsx
+++ b/medicine/Sexualité et sexologie/Bad_Sex_in_Fiction_Award/Bad_Sex_in_Fiction_Award.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Bad Sex in Fiction Award, dont on peut traduire le nom par « prix du mauvais sexe dans la fiction », est un prix littéraire britannique donné tous les ans à l'auteur qui a produit la pire description d'un acte sexuel dans un roman.
-Le prix est représenté par un « trophée semi-abstrait représentatif de la vision de la sexualité dans les années 1950 »[1] et qui représente une femme nue drapée dans un livre ouvert[réf. nécessaire]. Il a été présenté chaque année depuis 1993 par la Literary Review, un journal littéraire londonien. Le prix a été fondé par Rhoda Koenig, un critique littéraire, et Auberon Waugh, qui écrivait, à l'époque, dans la Literary Review.
-L'objectif avoué est d'« attirer l'attention sur l'usage grossier, insipide et souvent routinier de passages redondants de description sexuelle dans le roman moderne, et de le décourager »[2].
+Le prix est représenté par un « trophée semi-abstrait représentatif de la vision de la sexualité dans les années 1950 » et qui représente une femme nue drapée dans un livre ouvert[réf. nécessaire]. Il a été présenté chaque année depuis 1993 par la Literary Review, un journal littéraire londonien. Le prix a été fondé par Rhoda Koenig, un critique littéraire, et Auberon Waugh, qui écrivait, à l'époque, dans la Literary Review.
+L'objectif avoué est d'« attirer l'attention sur l'usage grossier, insipide et souvent routinier de passages redondants de description sexuelle dans le roman moderne, et de le décourager ».
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1993 : Melvyn Bragg, A Time to Dance
@@ -533,17 +547,17 @@
 2006 : Iain Hollingshead, Twenty Something
 2007 : Norman Mailer, The Castle in the Forest
 2008 : Rachel Johnson, Shire Hell ; John Updike, pour l'ensemble de son œuvre (nommé pour cette édition avec The Widows of Eastwick)
-2009 : Jonathan Littell, Les Bienveillantes[3]
+2009 : Jonathan Littell, Les Bienveillantes
 2010 : Rowan Somerville, The Shape of Her
 2011 : David Guterson, Ed King
 2012 : Nancy Huston, Infrared
-2013 : Manil Suri, The City of Devi[4]
-2014 : Ben Okri, The Age of Magic[5]
+2013 : Manil Suri, The City of Devi
+2014 : Ben Okri, The Age of Magic
 2015 : Morrissey, List of the Lost (en)
 2016 : Erri De Luca, Le jour avant le bonheur
 2017 : Christopher Bollen, The Destroyers
 2018 : James Frey, Katerina
-2019 : Didier Decoin, The Office of Gardens and Ponds et John Harvey, Pax[6]
+2019 : Didier Decoin, The Office of Gardens and Ponds et John Harvey, Pax
 2020 : Prix annulé en raison de la pandémie de COVID-19
 2021 :
 2022 :
